--- a/Code/Results/Cases/Case_3_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9904426034212375</v>
+        <v>1.040601056377843</v>
       </c>
       <c r="D2">
-        <v>1.011884590829485</v>
+        <v>1.044622031454461</v>
       </c>
       <c r="E2">
-        <v>0.9976668608491354</v>
+        <v>1.03891922087721</v>
       </c>
       <c r="F2">
-        <v>1.012275735038924</v>
+        <v>1.053383609371474</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039204599504983</v>
+        <v>1.03500504795004</v>
       </c>
       <c r="J2">
-        <v>1.012912981387615</v>
+        <v>1.045686782448603</v>
       </c>
       <c r="K2">
-        <v>1.023180800666442</v>
+        <v>1.047392564274517</v>
       </c>
       <c r="L2">
-        <v>1.009158795992201</v>
+        <v>1.041705884398602</v>
       </c>
       <c r="M2">
-        <v>1.023566658008395</v>
+        <v>1.05612972849557</v>
       </c>
       <c r="N2">
-        <v>1.014351434003928</v>
+        <v>1.04717177762163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.998056568960056</v>
+        <v>1.042116107210576</v>
       </c>
       <c r="D3">
-        <v>1.017591511471867</v>
+        <v>1.0457687725996</v>
       </c>
       <c r="E3">
-        <v>1.004001604666398</v>
+        <v>1.040225825274041</v>
       </c>
       <c r="F3">
-        <v>1.018973511116816</v>
+        <v>1.054768806110744</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04116797008209</v>
+        <v>1.035307742326496</v>
       </c>
       <c r="J3">
-        <v>1.018600354439273</v>
+        <v>1.046844697082699</v>
       </c>
       <c r="K3">
-        <v>1.028004146742105</v>
+        <v>1.048349705849354</v>
       </c>
       <c r="L3">
-        <v>1.014583538986825</v>
+        <v>1.042821291055424</v>
       </c>
       <c r="M3">
-        <v>1.029369244374234</v>
+        <v>1.057326494006294</v>
       </c>
       <c r="N3">
-        <v>1.020046883777671</v>
+        <v>1.048331336627321</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002834531869871</v>
+        <v>1.043095084045744</v>
       </c>
       <c r="D4">
-        <v>1.021175843922353</v>
+        <v>1.04650941127792</v>
       </c>
       <c r="E4">
-        <v>1.007983399040613</v>
+        <v>1.04107031227016</v>
       </c>
       <c r="F4">
-        <v>1.023184507842016</v>
+        <v>1.055664136147774</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042387278961878</v>
+        <v>1.035501631538478</v>
       </c>
       <c r="J4">
-        <v>1.022166006908482</v>
+        <v>1.047592214494134</v>
       </c>
       <c r="K4">
-        <v>1.031025240259962</v>
+        <v>1.048967086084688</v>
       </c>
       <c r="L4">
-        <v>1.017986416990122</v>
+        <v>1.043541521930854</v>
       </c>
       <c r="M4">
-        <v>1.033010942736873</v>
+        <v>1.058099368677673</v>
       </c>
       <c r="N4">
-        <v>1.023617599882372</v>
+        <v>1.049079915599222</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00480959928292</v>
+        <v>1.043506327272124</v>
       </c>
       <c r="D5">
-        <v>1.022658105146539</v>
+        <v>1.046820450120802</v>
       </c>
       <c r="E5">
-        <v>1.009630827705392</v>
+        <v>1.041425107081118</v>
       </c>
       <c r="F5">
-        <v>1.024926987095892</v>
+        <v>1.056040302738354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04288816910098</v>
+        <v>1.035582671512554</v>
       </c>
       <c r="J5">
-        <v>1.02363906440741</v>
+        <v>1.04790606186453</v>
       </c>
       <c r="K5">
-        <v>1.032272603564566</v>
+        <v>1.049226169169924</v>
       </c>
       <c r="L5">
-        <v>1.019392669937086</v>
+        <v>1.043843950107604</v>
       </c>
       <c r="M5">
-        <v>1.034516294544764</v>
+        <v>1.058423928161887</v>
       </c>
       <c r="N5">
-        <v>1.02509274929191</v>
+        <v>1.049394208668883</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005139307990325</v>
+        <v>1.043575358352176</v>
       </c>
       <c r="D6">
-        <v>1.022905578841539</v>
+        <v>1.046872655947639</v>
       </c>
       <c r="E6">
-        <v>1.009905925678795</v>
+        <v>1.041484665508734</v>
       </c>
       <c r="F6">
-        <v>1.025217969545844</v>
+        <v>1.05610344943045</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042971598871667</v>
+        <v>1.035596250904371</v>
       </c>
       <c r="J6">
-        <v>1.023884916087594</v>
+        <v>1.047958734394451</v>
       </c>
       <c r="K6">
-        <v>1.032480743539408</v>
+        <v>1.049269643301048</v>
       </c>
       <c r="L6">
-        <v>1.01962739772556</v>
+        <v>1.043894708347562</v>
       </c>
       <c r="M6">
-        <v>1.034767586726159</v>
+        <v>1.058478402338797</v>
       </c>
       <c r="N6">
-        <v>1.02533895010968</v>
+        <v>1.049446955999838</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002861052239767</v>
+        <v>1.043100580340588</v>
       </c>
       <c r="D7">
-        <v>1.021195744877485</v>
+        <v>1.046513568668099</v>
       </c>
       <c r="E7">
-        <v>1.008005514315196</v>
+        <v>1.041075053942981</v>
       </c>
       <c r="F7">
-        <v>1.023207898243528</v>
+        <v>1.055669163401579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042394017211614</v>
+        <v>1.035502716247522</v>
       </c>
       <c r="J7">
-        <v>1.022185790074084</v>
+        <v>1.047596409738285</v>
       </c>
       <c r="K7">
-        <v>1.031041995264197</v>
+        <v>1.04897054978174</v>
       </c>
       <c r="L7">
-        <v>1.018005301233981</v>
+        <v>1.043545564387034</v>
       </c>
       <c r="M7">
-        <v>1.03303115618593</v>
+        <v>1.058103706853968</v>
       </c>
       <c r="N7">
-        <v>1.023637411142338</v>
+        <v>1.049084116801102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9930478643749231</v>
+        <v>1.041113361522263</v>
       </c>
       <c r="D8">
-        <v>1.013836581001646</v>
+        <v>1.045009866412437</v>
       </c>
       <c r="E8">
-        <v>0.9998329566276848</v>
+        <v>1.039360998833051</v>
       </c>
       <c r="F8">
-        <v>1.014565737358172</v>
+        <v>1.053851950416018</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039879049845873</v>
+        <v>1.035107754687422</v>
       </c>
       <c r="J8">
-        <v>1.014859673494616</v>
+        <v>1.0460784667529</v>
       </c>
       <c r="K8">
-        <v>1.024832332910027</v>
+        <v>1.047716442020009</v>
       </c>
       <c r="L8">
-        <v>1.011015191097152</v>
+        <v>1.042083157379873</v>
       </c>
       <c r="M8">
-        <v>1.025551955945461</v>
+        <v>1.05653449728485</v>
       </c>
       <c r="N8">
-        <v>1.01630089063701</v>
+        <v>1.047564018162566</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9745147525726485</v>
+        <v>1.037600856255405</v>
       </c>
       <c r="D9">
-        <v>0.9999703494438729</v>
+        <v>1.042349378090465</v>
       </c>
       <c r="E9">
-        <v>0.9844572952749503</v>
+        <v>1.03633291137544</v>
       </c>
       <c r="F9">
-        <v>0.9983159939572182</v>
+        <v>1.05064199289539</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035029300693393</v>
+        <v>1.034396589088534</v>
       </c>
       <c r="J9">
-        <v>1.00100071052371</v>
+        <v>1.043390158428069</v>
       </c>
       <c r="K9">
-        <v>1.013063907725922</v>
+        <v>1.045491381552203</v>
       </c>
       <c r="L9">
-        <v>0.997807678118564</v>
+        <v>1.039494403535749</v>
       </c>
       <c r="M9">
-        <v>1.011436452199522</v>
+        <v>1.053757534928438</v>
       </c>
       <c r="N9">
-        <v>1.00242224634904</v>
+        <v>1.044871892131561</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9611641036733936</v>
+        <v>1.035251469531577</v>
       </c>
       <c r="D10">
-        <v>0.9900148510425977</v>
+        <v>1.040568183670831</v>
       </c>
       <c r="E10">
-        <v>0.9734302150793522</v>
+        <v>1.034308657859507</v>
       </c>
       <c r="F10">
-        <v>0.9866704275000791</v>
+        <v>1.048496423206938</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03147321159233</v>
+        <v>1.033912161603633</v>
       </c>
       <c r="J10">
-        <v>0.9910080295160565</v>
+        <v>1.041588534886198</v>
       </c>
       <c r="K10">
-        <v>1.004566761555455</v>
+        <v>1.043997539670896</v>
       </c>
       <c r="L10">
-        <v>0.9882963584508547</v>
+        <v>1.037760310304046</v>
       </c>
       <c r="M10">
-        <v>1.001284595656779</v>
+        <v>1.051897959741803</v>
       </c>
       <c r="N10">
-        <v>0.9924153745881789</v>
+        <v>1.043067710077612</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9551044812147104</v>
+        <v>1.034232222795397</v>
       </c>
       <c r="D11">
-        <v>0.9855070625201731</v>
+        <v>1.039795053622449</v>
       </c>
       <c r="E11">
-        <v>0.9684391724783225</v>
+        <v>1.033430744045676</v>
       </c>
       <c r="F11">
-        <v>0.9814019651417091</v>
+        <v>1.047565960016393</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029845775436941</v>
+        <v>1.033699928898111</v>
       </c>
       <c r="J11">
-        <v>0.986472045490295</v>
+        <v>1.040806101384582</v>
       </c>
       <c r="K11">
-        <v>1.0007075696052</v>
+        <v>1.043348145064591</v>
       </c>
       <c r="L11">
-        <v>0.9839818760494622</v>
+        <v>1.037007398466262</v>
       </c>
       <c r="M11">
-        <v>0.9966833475734</v>
+        <v>1.051090709629191</v>
       </c>
       <c r="N11">
-        <v>0.9878729489448163</v>
+        <v>1.042284165430676</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9528075539878995</v>
+        <v>1.033853327476458</v>
       </c>
       <c r="D12">
-        <v>0.9838002768243724</v>
+        <v>1.039507593316746</v>
       </c>
       <c r="E12">
-        <v>0.9665496157373088</v>
+        <v>1.033104430792118</v>
       </c>
       <c r="F12">
-        <v>0.9794078106687247</v>
+        <v>1.047220124628235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029227016455159</v>
+        <v>1.033620722708178</v>
       </c>
       <c r="J12">
-        <v>0.9847527519179611</v>
+        <v>1.040515115692788</v>
       </c>
       <c r="K12">
-        <v>0.9992445611217664</v>
+        <v>1.043106542297149</v>
       </c>
       <c r="L12">
-        <v>0.982347012165444</v>
+        <v>1.03672742102637</v>
       </c>
       <c r="M12">
-        <v>0.9949404518302638</v>
+        <v>1.050790547880423</v>
       </c>
       <c r="N12">
-        <v>0.9861512137784038</v>
+        <v>1.041992766505824</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9533024140780162</v>
+        <v>1.033934615609805</v>
       </c>
       <c r="D13">
-        <v>0.9841679030523536</v>
+        <v>1.039569267535452</v>
       </c>
       <c r="E13">
-        <v>0.9669566015517309</v>
+        <v>1.033174436021593</v>
       </c>
       <c r="F13">
-        <v>0.9798373051223399</v>
+        <v>1.047294317558069</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029360406667728</v>
+        <v>1.033637729640366</v>
       </c>
       <c r="J13">
-        <v>0.9851231570939163</v>
+        <v>1.040577549286497</v>
       </c>
       <c r="K13">
-        <v>0.9995597618869184</v>
+        <v>1.043158384587499</v>
       </c>
       <c r="L13">
-        <v>0.9826992060432104</v>
+        <v>1.036787491378297</v>
       </c>
       <c r="M13">
-        <v>0.9953158891655652</v>
+        <v>1.050854947866176</v>
       </c>
       <c r="N13">
-        <v>0.9865221449721953</v>
+        <v>1.042055288762397</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9549155838586945</v>
+        <v>1.034200909398271</v>
       </c>
       <c r="D14">
-        <v>0.9853666574056696</v>
+        <v>1.039771297919174</v>
       </c>
       <c r="E14">
-        <v>0.9682837285118535</v>
+        <v>1.033403775356293</v>
       </c>
       <c r="F14">
-        <v>0.9812379074110287</v>
+        <v>1.047537377682459</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029794926303871</v>
+        <v>1.033693389321298</v>
       </c>
       <c r="J14">
-        <v>0.9863306493666327</v>
+        <v>1.040782055698443</v>
       </c>
       <c r="K14">
-        <v>1.000587255062604</v>
+        <v>1.043328182065183</v>
       </c>
       <c r="L14">
-        <v>0.9838474137654486</v>
+        <v>1.036984261854275</v>
       </c>
       <c r="M14">
-        <v>0.9965399868530698</v>
+        <v>1.051065904589803</v>
       </c>
       <c r="N14">
-        <v>0.9877313520224401</v>
+        <v>1.042260085596905</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9559032634805383</v>
+        <v>1.034364941535171</v>
       </c>
       <c r="D15">
-        <v>0.9861008671182917</v>
+        <v>1.039895737517041</v>
       </c>
       <c r="E15">
-        <v>0.9690965874584557</v>
+        <v>1.033545049932919</v>
       </c>
       <c r="F15">
-        <v>0.9820958279058862</v>
+        <v>1.047687105694179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030060723854303</v>
+        <v>1.03372763353156</v>
       </c>
       <c r="J15">
-        <v>0.9870699660507324</v>
+        <v>1.040908011599149</v>
       </c>
       <c r="K15">
-        <v>1.00121633325776</v>
+        <v>1.043432748226694</v>
       </c>
       <c r="L15">
-        <v>0.9845504948959664</v>
+        <v>1.037105457046382</v>
       </c>
       <c r="M15">
-        <v>0.9972896224458675</v>
+        <v>1.05119584030791</v>
       </c>
       <c r="N15">
-        <v>0.9884717186210321</v>
+        <v>1.042386220369437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9615600400987619</v>
+        <v>1.035319071779018</v>
       </c>
       <c r="D16">
-        <v>0.990309637472776</v>
+        <v>1.04061945406294</v>
       </c>
       <c r="E16">
-        <v>0.9737566369482172</v>
+        <v>1.034366892056942</v>
       </c>
       <c r="F16">
-        <v>0.9870150493670276</v>
+        <v>1.048558144527166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031579283085766</v>
+        <v>1.033926194522944</v>
       </c>
       <c r="J16">
-        <v>0.9913044145699039</v>
+        <v>1.041640412999064</v>
       </c>
       <c r="K16">
-        <v>1.004818887184872</v>
+        <v>1.044040583640692</v>
       </c>
       <c r="L16">
-        <v>0.9885783341804836</v>
+        <v>1.037810235110195</v>
       </c>
       <c r="M16">
-        <v>1.001585396477617</v>
+        <v>1.051951490713486</v>
       </c>
       <c r="N16">
-        <v>0.9927121805427992</v>
+        <v>1.043119661863348</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9650309546750113</v>
+        <v>1.03591704477842</v>
       </c>
       <c r="D17">
-        <v>0.9928950877009134</v>
+        <v>1.041072920000211</v>
       </c>
       <c r="E17">
-        <v>0.9766197589624133</v>
+        <v>1.034882032630621</v>
       </c>
       <c r="F17">
-        <v>0.9900380973262458</v>
+        <v>1.04910413979111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032507648985058</v>
+        <v>1.034050083202982</v>
       </c>
       <c r="J17">
-        <v>0.9939025908316705</v>
+        <v>1.04209920356983</v>
       </c>
       <c r="K17">
-        <v>1.007028849246977</v>
+        <v>1.044421175902414</v>
       </c>
       <c r="L17">
-        <v>0.991050535168437</v>
+        <v>1.038251773721387</v>
       </c>
       <c r="M17">
-        <v>1.004223078838866</v>
+        <v>1.052424939131325</v>
       </c>
       <c r="N17">
-        <v>0.9953140465128724</v>
+        <v>1.043579103969348</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.967028905309598</v>
+        <v>1.036265645102559</v>
       </c>
       <c r="D18">
-        <v>0.9943843377570544</v>
+        <v>1.041337239832302</v>
       </c>
       <c r="E18">
-        <v>0.9782691408408644</v>
+        <v>1.035182370924411</v>
       </c>
       <c r="F18">
-        <v>0.9917798418109729</v>
+        <v>1.049422473312345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033040775502633</v>
+        <v>1.034122106963115</v>
       </c>
       <c r="J18">
-        <v>0.995398113191666</v>
+        <v>1.042366585090764</v>
       </c>
       <c r="K18">
-        <v>1.008300714048731</v>
+        <v>1.044642923142489</v>
       </c>
       <c r="L18">
-        <v>0.9924738250215002</v>
+        <v>1.038509119509837</v>
       </c>
       <c r="M18">
-        <v>1.00574199066887</v>
+        <v>1.052700897013522</v>
       </c>
       <c r="N18">
-        <v>0.9968116926861575</v>
+        <v>1.043846865202711</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.967705766678823</v>
+        <v>1.036384477328026</v>
       </c>
       <c r="D19">
-        <v>0.9948890237935841</v>
+        <v>1.041427335846411</v>
       </c>
       <c r="E19">
-        <v>0.9788281279612172</v>
+        <v>1.035284755915514</v>
       </c>
       <c r="F19">
-        <v>0.9923701693231464</v>
+        <v>1.049530993911629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033221168382929</v>
+        <v>1.034146624827394</v>
       </c>
       <c r="J19">
-        <v>0.9959047488155797</v>
+        <v>1.042457717613182</v>
       </c>
       <c r="K19">
-        <v>1.008731545770869</v>
+        <v>1.044718491693714</v>
       </c>
       <c r="L19">
-        <v>0.9929560373395958</v>
+        <v>1.038596834680779</v>
       </c>
       <c r="M19">
-        <v>1.006256657762335</v>
+        <v>1.052794958369605</v>
       </c>
       <c r="N19">
-        <v>0.9973190477907692</v>
+        <v>1.043938127143765</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9646613359631936</v>
+        <v>1.035852907365505</v>
       </c>
       <c r="D20">
-        <v>0.9926196568805542</v>
+        <v>1.0410242859717</v>
       </c>
       <c r="E20">
-        <v>0.9763147283635277</v>
+        <v>1.034826776882556</v>
       </c>
       <c r="F20">
-        <v>0.989716004037246</v>
+        <v>1.049045573813182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032408917657417</v>
+        <v>1.034036815795011</v>
       </c>
       <c r="J20">
-        <v>0.9936259150992238</v>
+        <v>1.042050002824662</v>
       </c>
       <c r="K20">
-        <v>1.006793534127446</v>
+        <v>1.044380367416739</v>
       </c>
       <c r="L20">
-        <v>0.9907872451432205</v>
+        <v>1.038204421147806</v>
       </c>
       <c r="M20">
-        <v>1.003942128067547</v>
+        <v>1.052374162975028</v>
       </c>
       <c r="N20">
-        <v>0.9950369778691501</v>
+        <v>1.043529833353479</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9544418555953019</v>
+        <v>1.034122500917502</v>
       </c>
       <c r="D21">
-        <v>0.9850145726860983</v>
+        <v>1.039711812931177</v>
       </c>
       <c r="E21">
-        <v>0.96789393479893</v>
+        <v>1.033336246683081</v>
       </c>
       <c r="F21">
-        <v>0.9808265208011095</v>
+        <v>1.047465808661493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02966737417279</v>
+        <v>1.033677009259996</v>
       </c>
       <c r="J21">
-        <v>0.9859760496457554</v>
+        <v>1.040721843512581</v>
       </c>
       <c r="K21">
-        <v>1.000285521058674</v>
+        <v>1.04327819171365</v>
       </c>
       <c r="L21">
-        <v>0.9835102107325391</v>
+        <v>1.036926326529495</v>
       </c>
       <c r="M21">
-        <v>0.9961804787804205</v>
+        <v>1.051003791787457</v>
       </c>
       <c r="N21">
-        <v>0.9873762487292858</v>
+        <v>1.042199787902833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9477471016323396</v>
+        <v>1.033032775550566</v>
       </c>
       <c r="D22">
-        <v>0.9800438640525539</v>
+        <v>1.0388849550116</v>
       </c>
       <c r="E22">
-        <v>0.9623912151250371</v>
+        <v>1.032397832417051</v>
       </c>
       <c r="F22">
-        <v>0.9750200778413652</v>
+        <v>1.046471271659126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027860516675198</v>
+        <v>1.0334486225423</v>
       </c>
       <c r="J22">
-        <v>0.9809652769613898</v>
+        <v>1.039884719460801</v>
       </c>
       <c r="K22">
-        <v>0.9960213000078534</v>
+        <v>1.042582958516568</v>
       </c>
       <c r="L22">
-        <v>0.9787464306038488</v>
+        <v>1.036120926777071</v>
       </c>
       <c r="M22">
-        <v>0.9911031829315737</v>
+        <v>1.050140370263197</v>
       </c>
       <c r="N22">
-        <v>0.982358360172965</v>
+        <v>1.04136147503888</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9513232291398105</v>
+        <v>1.033610628574498</v>
       </c>
       <c r="D23">
-        <v>0.9826978919469785</v>
+        <v>1.039323446760952</v>
       </c>
       <c r="E23">
-        <v>0.9653292273539228</v>
+        <v>1.032895425187939</v>
       </c>
       <c r="F23">
-        <v>0.9781199953900992</v>
+        <v>1.046998617833584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028826651881295</v>
+        <v>1.033569900294681</v>
       </c>
       <c r="J23">
-        <v>0.9836417548007488</v>
+        <v>1.040328692045854</v>
       </c>
       <c r="K23">
-        <v>0.9982991149711877</v>
+        <v>1.042951730028777</v>
       </c>
       <c r="L23">
-        <v>0.9812907094635265</v>
+        <v>1.036548058186045</v>
       </c>
       <c r="M23">
-        <v>0.9938145347835782</v>
+        <v>1.05059826050444</v>
       </c>
       <c r="N23">
-        <v>0.985038638917852</v>
+        <v>1.041806078115928</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9648284325601946</v>
+        <v>1.035881888880332</v>
       </c>
       <c r="D24">
-        <v>0.9927441701011952</v>
+        <v>1.041046262149683</v>
       </c>
       <c r="E24">
-        <v>0.976452622075614</v>
+        <v>1.034851744992481</v>
       </c>
       <c r="F24">
-        <v>0.9898616104780894</v>
+        <v>1.049072037679065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032453555890586</v>
+        <v>1.034042811502363</v>
       </c>
       <c r="J24">
-        <v>0.9937509943814491</v>
+        <v>1.042072235213663</v>
       </c>
       <c r="K24">
-        <v>1.006899915771614</v>
+        <v>1.044398807774526</v>
       </c>
       <c r="L24">
-        <v>0.9909062721618651</v>
+        <v>1.038225818344056</v>
       </c>
       <c r="M24">
-        <v>1.004069137992576</v>
+        <v>1.052397107142083</v>
       </c>
       <c r="N24">
-        <v>0.9951622347783031</v>
+        <v>1.043552097315022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9794684599323311</v>
+        <v>1.038510248195776</v>
       </c>
       <c r="D25">
-        <v>1.003671860749884</v>
+        <v>1.043038484693539</v>
       </c>
       <c r="E25">
-        <v>0.9885593982492246</v>
+        <v>1.037116693248241</v>
       </c>
       <c r="F25">
-        <v>1.00265002098788</v>
+        <v>1.051472804254958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036336630445267</v>
+        <v>1.034582253344939</v>
       </c>
       <c r="J25">
-        <v>1.00470711442403</v>
+        <v>1.044086785315725</v>
       </c>
       <c r="K25">
-        <v>1.016213441979361</v>
+        <v>1.046068437899152</v>
       </c>
       <c r="L25">
-        <v>1.001337949614368</v>
+        <v>1.04016509028063</v>
       </c>
       <c r="M25">
-        <v>1.015207337613721</v>
+        <v>1.054476879500962</v>
       </c>
       <c r="N25">
-        <v>1.006133913768029</v>
+        <v>1.045569508309302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040601056377843</v>
+        <v>0.9904426034212368</v>
       </c>
       <c r="D2">
-        <v>1.044622031454461</v>
+        <v>1.011884590829484</v>
       </c>
       <c r="E2">
-        <v>1.03891922087721</v>
+        <v>0.997666860849135</v>
       </c>
       <c r="F2">
-        <v>1.053383609371474</v>
+        <v>1.012275735038924</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03500504795004</v>
+        <v>1.039204599504983</v>
       </c>
       <c r="J2">
-        <v>1.045686782448603</v>
+        <v>1.012912981387615</v>
       </c>
       <c r="K2">
-        <v>1.047392564274517</v>
+        <v>1.023180800666442</v>
       </c>
       <c r="L2">
-        <v>1.041705884398602</v>
+        <v>1.009158795992201</v>
       </c>
       <c r="M2">
-        <v>1.05612972849557</v>
+        <v>1.023566658008395</v>
       </c>
       <c r="N2">
-        <v>1.04717177762163</v>
+        <v>1.014351434003928</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042116107210576</v>
+        <v>0.9980565689600559</v>
       </c>
       <c r="D3">
-        <v>1.0457687725996</v>
+        <v>1.017591511471867</v>
       </c>
       <c r="E3">
-        <v>1.040225825274041</v>
+        <v>1.004001604666398</v>
       </c>
       <c r="F3">
-        <v>1.054768806110744</v>
+        <v>1.018973511116816</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035307742326496</v>
+        <v>1.04116797008209</v>
       </c>
       <c r="J3">
-        <v>1.046844697082699</v>
+        <v>1.018600354439273</v>
       </c>
       <c r="K3">
-        <v>1.048349705849354</v>
+        <v>1.028004146742105</v>
       </c>
       <c r="L3">
-        <v>1.042821291055424</v>
+        <v>1.014583538986824</v>
       </c>
       <c r="M3">
-        <v>1.057326494006294</v>
+        <v>1.029369244374234</v>
       </c>
       <c r="N3">
-        <v>1.048331336627321</v>
+        <v>1.02004688377767</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043095084045744</v>
+        <v>1.002834531869871</v>
       </c>
       <c r="D4">
-        <v>1.04650941127792</v>
+        <v>1.021175843922353</v>
       </c>
       <c r="E4">
-        <v>1.04107031227016</v>
+        <v>1.007983399040613</v>
       </c>
       <c r="F4">
-        <v>1.055664136147774</v>
+        <v>1.023184507842015</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035501631538478</v>
+        <v>1.042387278961878</v>
       </c>
       <c r="J4">
-        <v>1.047592214494134</v>
+        <v>1.022166006908481</v>
       </c>
       <c r="K4">
-        <v>1.048967086084688</v>
+        <v>1.031025240259962</v>
       </c>
       <c r="L4">
-        <v>1.043541521930854</v>
+        <v>1.017986416990122</v>
       </c>
       <c r="M4">
-        <v>1.058099368677673</v>
+        <v>1.033010942736873</v>
       </c>
       <c r="N4">
-        <v>1.049079915599222</v>
+        <v>1.023617599882372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043506327272124</v>
+        <v>1.00480959928292</v>
       </c>
       <c r="D5">
-        <v>1.046820450120802</v>
+        <v>1.022658105146539</v>
       </c>
       <c r="E5">
-        <v>1.041425107081118</v>
+        <v>1.009630827705392</v>
       </c>
       <c r="F5">
-        <v>1.056040302738354</v>
+        <v>1.024926987095892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035582671512554</v>
+        <v>1.04288816910098</v>
       </c>
       <c r="J5">
-        <v>1.04790606186453</v>
+        <v>1.02363906440741</v>
       </c>
       <c r="K5">
-        <v>1.049226169169924</v>
+        <v>1.032272603564567</v>
       </c>
       <c r="L5">
-        <v>1.043843950107604</v>
+        <v>1.019392669937086</v>
       </c>
       <c r="M5">
-        <v>1.058423928161887</v>
+        <v>1.034516294544764</v>
       </c>
       <c r="N5">
-        <v>1.049394208668883</v>
+        <v>1.02509274929191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043575358352176</v>
+        <v>1.005139307990327</v>
       </c>
       <c r="D6">
-        <v>1.046872655947639</v>
+        <v>1.02290557884154</v>
       </c>
       <c r="E6">
-        <v>1.041484665508734</v>
+        <v>1.009905925678796</v>
       </c>
       <c r="F6">
-        <v>1.05610344943045</v>
+        <v>1.025217969545845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035596250904371</v>
+        <v>1.042971598871667</v>
       </c>
       <c r="J6">
-        <v>1.047958734394451</v>
+        <v>1.023884916087596</v>
       </c>
       <c r="K6">
-        <v>1.049269643301048</v>
+        <v>1.032480743539409</v>
       </c>
       <c r="L6">
-        <v>1.043894708347562</v>
+        <v>1.019627397725561</v>
       </c>
       <c r="M6">
-        <v>1.058478402338797</v>
+        <v>1.03476758672616</v>
       </c>
       <c r="N6">
-        <v>1.049446955999838</v>
+        <v>1.025338950109681</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043100580340588</v>
+        <v>1.002861052239767</v>
       </c>
       <c r="D7">
-        <v>1.046513568668099</v>
+        <v>1.021195744877484</v>
       </c>
       <c r="E7">
-        <v>1.041075053942981</v>
+        <v>1.008005514315196</v>
       </c>
       <c r="F7">
-        <v>1.055669163401579</v>
+        <v>1.023207898243527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035502716247522</v>
+        <v>1.042394017211614</v>
       </c>
       <c r="J7">
-        <v>1.047596409738285</v>
+        <v>1.022185790074084</v>
       </c>
       <c r="K7">
-        <v>1.04897054978174</v>
+        <v>1.031041995264196</v>
       </c>
       <c r="L7">
-        <v>1.043545564387034</v>
+        <v>1.018005301233981</v>
       </c>
       <c r="M7">
-        <v>1.058103706853968</v>
+        <v>1.03303115618593</v>
       </c>
       <c r="N7">
-        <v>1.049084116801102</v>
+        <v>1.023637411142338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041113361522263</v>
+        <v>0.9930478643749218</v>
       </c>
       <c r="D8">
-        <v>1.045009866412437</v>
+        <v>1.013836581001645</v>
       </c>
       <c r="E8">
-        <v>1.039360998833051</v>
+        <v>0.9998329566276836</v>
       </c>
       <c r="F8">
-        <v>1.053851950416018</v>
+        <v>1.014565737358171</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035107754687422</v>
+        <v>1.039879049845872</v>
       </c>
       <c r="J8">
-        <v>1.0460784667529</v>
+        <v>1.014859673494615</v>
       </c>
       <c r="K8">
-        <v>1.047716442020009</v>
+        <v>1.024832332910026</v>
       </c>
       <c r="L8">
-        <v>1.042083157379873</v>
+        <v>1.011015191097151</v>
       </c>
       <c r="M8">
-        <v>1.05653449728485</v>
+        <v>1.02555195594546</v>
       </c>
       <c r="N8">
-        <v>1.047564018162566</v>
+        <v>1.016300890637009</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037600856255405</v>
+        <v>0.9745147525726456</v>
       </c>
       <c r="D9">
-        <v>1.042349378090465</v>
+        <v>0.9999703494438703</v>
       </c>
       <c r="E9">
-        <v>1.03633291137544</v>
+        <v>0.984457295274948</v>
       </c>
       <c r="F9">
-        <v>1.05064199289539</v>
+        <v>0.9983159939572157</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034396589088534</v>
+        <v>1.035029300693392</v>
       </c>
       <c r="J9">
-        <v>1.043390158428069</v>
+        <v>1.001000710523707</v>
       </c>
       <c r="K9">
-        <v>1.045491381552203</v>
+        <v>1.01306390772592</v>
       </c>
       <c r="L9">
-        <v>1.039494403535749</v>
+        <v>0.9978076781185614</v>
       </c>
       <c r="M9">
-        <v>1.053757534928438</v>
+        <v>1.011436452199519</v>
       </c>
       <c r="N9">
-        <v>1.044871892131561</v>
+        <v>1.002422246349037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035251469531577</v>
+        <v>0.9611641036733924</v>
       </c>
       <c r="D10">
-        <v>1.040568183670831</v>
+        <v>0.9900148510425965</v>
       </c>
       <c r="E10">
-        <v>1.034308657859507</v>
+        <v>0.9734302150793516</v>
       </c>
       <c r="F10">
-        <v>1.048496423206938</v>
+        <v>0.9866704275000778</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033912161603633</v>
+        <v>1.031473211592329</v>
       </c>
       <c r="J10">
-        <v>1.041588534886198</v>
+        <v>0.9910080295160555</v>
       </c>
       <c r="K10">
-        <v>1.043997539670896</v>
+        <v>1.004566761555454</v>
       </c>
       <c r="L10">
-        <v>1.037760310304046</v>
+        <v>0.9882963584508538</v>
       </c>
       <c r="M10">
-        <v>1.051897959741803</v>
+        <v>1.001284595656778</v>
       </c>
       <c r="N10">
-        <v>1.043067710077612</v>
+        <v>0.9924153745881781</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034232222795397</v>
+        <v>0.9551044812147103</v>
       </c>
       <c r="D11">
-        <v>1.039795053622449</v>
+        <v>0.9855070625201731</v>
       </c>
       <c r="E11">
-        <v>1.033430744045676</v>
+        <v>0.9684391724783222</v>
       </c>
       <c r="F11">
-        <v>1.047565960016393</v>
+        <v>0.9814019651417091</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033699928898111</v>
+        <v>1.029845775436941</v>
       </c>
       <c r="J11">
-        <v>1.040806101384582</v>
+        <v>0.9864720454902949</v>
       </c>
       <c r="K11">
-        <v>1.043348145064591</v>
+        <v>1.0007075696052</v>
       </c>
       <c r="L11">
-        <v>1.037007398466262</v>
+        <v>0.983981876049462</v>
       </c>
       <c r="M11">
-        <v>1.051090709629191</v>
+        <v>0.9966833475734002</v>
       </c>
       <c r="N11">
-        <v>1.042284165430676</v>
+        <v>0.9878729489448161</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033853327476458</v>
+        <v>0.9528075539879</v>
       </c>
       <c r="D12">
-        <v>1.039507593316746</v>
+        <v>0.9838002768243727</v>
       </c>
       <c r="E12">
-        <v>1.033104430792118</v>
+        <v>0.9665496157373092</v>
       </c>
       <c r="F12">
-        <v>1.047220124628235</v>
+        <v>0.9794078106687247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033620722708178</v>
+        <v>1.029227016455159</v>
       </c>
       <c r="J12">
-        <v>1.040515115692788</v>
+        <v>0.9847527519179612</v>
       </c>
       <c r="K12">
-        <v>1.043106542297149</v>
+        <v>0.9992445611217666</v>
       </c>
       <c r="L12">
-        <v>1.03672742102637</v>
+        <v>0.9823470121654443</v>
       </c>
       <c r="M12">
-        <v>1.050790547880423</v>
+        <v>0.9949404518302639</v>
       </c>
       <c r="N12">
-        <v>1.041992766505824</v>
+        <v>0.9861512137784041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033934615609805</v>
+        <v>0.9533024140780144</v>
       </c>
       <c r="D13">
-        <v>1.039569267535452</v>
+        <v>0.9841679030523519</v>
       </c>
       <c r="E13">
-        <v>1.033174436021593</v>
+        <v>0.9669566015517295</v>
       </c>
       <c r="F13">
-        <v>1.047294317558069</v>
+        <v>0.9798373051223381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033637729640366</v>
+        <v>1.029360406667727</v>
       </c>
       <c r="J13">
-        <v>1.040577549286497</v>
+        <v>0.9851231570939146</v>
       </c>
       <c r="K13">
-        <v>1.043158384587499</v>
+        <v>0.9995597618869168</v>
       </c>
       <c r="L13">
-        <v>1.036787491378297</v>
+        <v>0.9826992060432088</v>
       </c>
       <c r="M13">
-        <v>1.050854947866176</v>
+        <v>0.9953158891655634</v>
       </c>
       <c r="N13">
-        <v>1.042055288762397</v>
+        <v>0.9865221449721933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034200909398271</v>
+        <v>0.954915583858693</v>
       </c>
       <c r="D14">
-        <v>1.039771297919174</v>
+        <v>0.9853666574056684</v>
       </c>
       <c r="E14">
-        <v>1.033403775356293</v>
+        <v>0.9682837285118517</v>
       </c>
       <c r="F14">
-        <v>1.047537377682459</v>
+        <v>0.9812379074110279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033693389321298</v>
+        <v>1.029794926303871</v>
       </c>
       <c r="J14">
-        <v>1.040782055698443</v>
+        <v>0.9863306493666311</v>
       </c>
       <c r="K14">
-        <v>1.043328182065183</v>
+        <v>1.000587255062603</v>
       </c>
       <c r="L14">
-        <v>1.036984261854275</v>
+        <v>0.983847413765447</v>
       </c>
       <c r="M14">
-        <v>1.051065904589803</v>
+        <v>0.9965399868530688</v>
       </c>
       <c r="N14">
-        <v>1.042260085596905</v>
+        <v>0.9877313520224384</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034364941535171</v>
+        <v>0.9559032634805371</v>
       </c>
       <c r="D15">
-        <v>1.039895737517041</v>
+        <v>0.9861008671182908</v>
       </c>
       <c r="E15">
-        <v>1.033545049932919</v>
+        <v>0.9690965874584548</v>
       </c>
       <c r="F15">
-        <v>1.047687105694179</v>
+        <v>0.9820958279058852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03372763353156</v>
+        <v>1.030060723854303</v>
       </c>
       <c r="J15">
-        <v>1.040908011599149</v>
+        <v>0.9870699660507315</v>
       </c>
       <c r="K15">
-        <v>1.043432748226694</v>
+        <v>1.001216333257759</v>
       </c>
       <c r="L15">
-        <v>1.037105457046382</v>
+        <v>0.9845504948959655</v>
       </c>
       <c r="M15">
-        <v>1.05119584030791</v>
+        <v>0.9972896224458666</v>
       </c>
       <c r="N15">
-        <v>1.042386220369437</v>
+        <v>0.9884717186210308</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035319071779018</v>
+        <v>0.9615600400987615</v>
       </c>
       <c r="D16">
-        <v>1.04061945406294</v>
+        <v>0.9903096374727758</v>
       </c>
       <c r="E16">
-        <v>1.034366892056942</v>
+        <v>0.9737566369482171</v>
       </c>
       <c r="F16">
-        <v>1.048558144527166</v>
+        <v>0.9870150493670271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033926194522944</v>
+        <v>1.031579283085766</v>
       </c>
       <c r="J16">
-        <v>1.041640412999064</v>
+        <v>0.9913044145699037</v>
       </c>
       <c r="K16">
-        <v>1.044040583640692</v>
+        <v>1.004818887184872</v>
       </c>
       <c r="L16">
-        <v>1.037810235110195</v>
+        <v>0.9885783341804832</v>
       </c>
       <c r="M16">
-        <v>1.051951490713486</v>
+        <v>1.001585396477616</v>
       </c>
       <c r="N16">
-        <v>1.043119661863348</v>
+        <v>0.9927121805427986</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03591704477842</v>
+        <v>0.9650309546750097</v>
       </c>
       <c r="D17">
-        <v>1.041072920000211</v>
+        <v>0.9928950877009123</v>
       </c>
       <c r="E17">
-        <v>1.034882032630621</v>
+        <v>0.9766197589624113</v>
       </c>
       <c r="F17">
-        <v>1.04910413979111</v>
+        <v>0.9900380973262443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034050083202982</v>
+        <v>1.032507648985058</v>
       </c>
       <c r="J17">
-        <v>1.04209920356983</v>
+        <v>0.993902590831669</v>
       </c>
       <c r="K17">
-        <v>1.044421175902414</v>
+        <v>1.007028849246976</v>
       </c>
       <c r="L17">
-        <v>1.038251773721387</v>
+        <v>0.991050535168435</v>
       </c>
       <c r="M17">
-        <v>1.052424939131325</v>
+        <v>1.004223078838865</v>
       </c>
       <c r="N17">
-        <v>1.043579103969348</v>
+        <v>0.9953140465128704</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036265645102559</v>
+        <v>0.9670289053095976</v>
       </c>
       <c r="D18">
-        <v>1.041337239832302</v>
+        <v>0.9943843377570543</v>
       </c>
       <c r="E18">
-        <v>1.035182370924411</v>
+        <v>0.9782691408408641</v>
       </c>
       <c r="F18">
-        <v>1.049422473312345</v>
+        <v>0.9917798418109729</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034122106963115</v>
+        <v>1.033040775502633</v>
       </c>
       <c r="J18">
-        <v>1.042366585090764</v>
+        <v>0.9953981131916656</v>
       </c>
       <c r="K18">
-        <v>1.044642923142489</v>
+        <v>1.008300714048731</v>
       </c>
       <c r="L18">
-        <v>1.038509119509837</v>
+        <v>0.9924738250214999</v>
       </c>
       <c r="M18">
-        <v>1.052700897013522</v>
+        <v>1.00574199066887</v>
       </c>
       <c r="N18">
-        <v>1.043846865202711</v>
+        <v>0.9968116926861572</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036384477328026</v>
+        <v>0.9677057666788244</v>
       </c>
       <c r="D19">
-        <v>1.041427335846411</v>
+        <v>0.9948890237935851</v>
       </c>
       <c r="E19">
-        <v>1.035284755915514</v>
+        <v>0.9788281279612182</v>
       </c>
       <c r="F19">
-        <v>1.049530993911629</v>
+        <v>0.9923701693231478</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034146624827394</v>
+        <v>1.033221168382929</v>
       </c>
       <c r="J19">
-        <v>1.042457717613182</v>
+        <v>0.9959047488155809</v>
       </c>
       <c r="K19">
-        <v>1.044718491693714</v>
+        <v>1.00873154577087</v>
       </c>
       <c r="L19">
-        <v>1.038596834680779</v>
+        <v>0.9929560373395966</v>
       </c>
       <c r="M19">
-        <v>1.052794958369605</v>
+        <v>1.006256657762336</v>
       </c>
       <c r="N19">
-        <v>1.043938127143765</v>
+        <v>0.9973190477907703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035852907365505</v>
+        <v>0.9646613359631936</v>
       </c>
       <c r="D20">
-        <v>1.0410242859717</v>
+        <v>0.9926196568805541</v>
       </c>
       <c r="E20">
-        <v>1.034826776882556</v>
+        <v>0.9763147283635275</v>
       </c>
       <c r="F20">
-        <v>1.049045573813182</v>
+        <v>0.9897160040372459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034036815795011</v>
+        <v>1.032408917657417</v>
       </c>
       <c r="J20">
-        <v>1.042050002824662</v>
+        <v>0.9936259150992237</v>
       </c>
       <c r="K20">
-        <v>1.044380367416739</v>
+        <v>1.006793534127446</v>
       </c>
       <c r="L20">
-        <v>1.038204421147806</v>
+        <v>0.9907872451432203</v>
       </c>
       <c r="M20">
-        <v>1.052374162975028</v>
+        <v>1.003942128067547</v>
       </c>
       <c r="N20">
-        <v>1.043529833353479</v>
+        <v>0.9950369778691502</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034122500917502</v>
+        <v>0.9544418555953028</v>
       </c>
       <c r="D21">
-        <v>1.039711812931177</v>
+        <v>0.985014572686099</v>
       </c>
       <c r="E21">
-        <v>1.033336246683081</v>
+        <v>0.967893934798931</v>
       </c>
       <c r="F21">
-        <v>1.047465808661493</v>
+        <v>0.9808265208011108</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033677009259996</v>
+        <v>1.029667374172791</v>
       </c>
       <c r="J21">
-        <v>1.040721843512581</v>
+        <v>0.9859760496457561</v>
       </c>
       <c r="K21">
-        <v>1.04327819171365</v>
+        <v>1.000285521058675</v>
       </c>
       <c r="L21">
-        <v>1.036926326529495</v>
+        <v>0.9835102107325397</v>
       </c>
       <c r="M21">
-        <v>1.051003791787457</v>
+        <v>0.9961804787804214</v>
       </c>
       <c r="N21">
-        <v>1.042199787902833</v>
+        <v>0.9873762487292866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033032775550566</v>
+        <v>0.9477471016323373</v>
       </c>
       <c r="D22">
-        <v>1.0388849550116</v>
+        <v>0.9800438640525519</v>
       </c>
       <c r="E22">
-        <v>1.032397832417051</v>
+        <v>0.9623912151250346</v>
       </c>
       <c r="F22">
-        <v>1.046471271659126</v>
+        <v>0.9750200778413628</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0334486225423</v>
+        <v>1.027860516675197</v>
       </c>
       <c r="J22">
-        <v>1.039884719460801</v>
+        <v>0.9809652769613877</v>
       </c>
       <c r="K22">
-        <v>1.042582958516568</v>
+        <v>0.9960213000078514</v>
       </c>
       <c r="L22">
-        <v>1.036120926777071</v>
+        <v>0.9787464306038467</v>
       </c>
       <c r="M22">
-        <v>1.050140370263197</v>
+        <v>0.9911031829315714</v>
       </c>
       <c r="N22">
-        <v>1.04136147503888</v>
+        <v>0.9823583601729627</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033610628574498</v>
+        <v>0.951323229139811</v>
       </c>
       <c r="D23">
-        <v>1.039323446760952</v>
+        <v>0.9826978919469789</v>
       </c>
       <c r="E23">
-        <v>1.032895425187939</v>
+        <v>0.9653292273539235</v>
       </c>
       <c r="F23">
-        <v>1.046998617833584</v>
+        <v>0.9781199953901001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033569900294681</v>
+        <v>1.028826651881296</v>
       </c>
       <c r="J23">
-        <v>1.040328692045854</v>
+        <v>0.9836417548007494</v>
       </c>
       <c r="K23">
-        <v>1.042951730028777</v>
+        <v>0.9982991149711883</v>
       </c>
       <c r="L23">
-        <v>1.036548058186045</v>
+        <v>0.981290709463527</v>
       </c>
       <c r="M23">
-        <v>1.05059826050444</v>
+        <v>0.9938145347835791</v>
       </c>
       <c r="N23">
-        <v>1.041806078115928</v>
+        <v>0.985038638917853</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035881888880332</v>
+        <v>0.9648284325601931</v>
       </c>
       <c r="D24">
-        <v>1.041046262149683</v>
+        <v>0.9927441701011943</v>
       </c>
       <c r="E24">
-        <v>1.034851744992481</v>
+        <v>0.9764526220756129</v>
       </c>
       <c r="F24">
-        <v>1.049072037679065</v>
+        <v>0.9898616104780881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034042811502363</v>
+        <v>1.032453555890585</v>
       </c>
       <c r="J24">
-        <v>1.042072235213663</v>
+        <v>0.9937509943814479</v>
       </c>
       <c r="K24">
-        <v>1.044398807774526</v>
+        <v>1.006899915771613</v>
       </c>
       <c r="L24">
-        <v>1.038225818344056</v>
+        <v>0.9909062721618639</v>
       </c>
       <c r="M24">
-        <v>1.052397107142083</v>
+        <v>1.004069137992575</v>
       </c>
       <c r="N24">
-        <v>1.043552097315022</v>
+        <v>0.995162234778302</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038510248195776</v>
+        <v>0.9794684599323314</v>
       </c>
       <c r="D25">
-        <v>1.043038484693539</v>
+        <v>1.003671860749884</v>
       </c>
       <c r="E25">
-        <v>1.037116693248241</v>
+        <v>0.988559398249225</v>
       </c>
       <c r="F25">
-        <v>1.051472804254958</v>
+        <v>1.00265002098788</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034582253344939</v>
+        <v>1.036336630445267</v>
       </c>
       <c r="J25">
-        <v>1.044086785315725</v>
+        <v>1.00470711442403</v>
       </c>
       <c r="K25">
-        <v>1.046068437899152</v>
+        <v>1.016213441979361</v>
       </c>
       <c r="L25">
-        <v>1.04016509028063</v>
+        <v>1.001337949614368</v>
       </c>
       <c r="M25">
-        <v>1.054476879500962</v>
+        <v>1.015207337613722</v>
       </c>
       <c r="N25">
-        <v>1.045569508309302</v>
+        <v>1.006133913768029</v>
       </c>
     </row>
   </sheetData>
